--- a/data/trans_camb/P59A-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P59A-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>0.7020794632729838</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>3.347798151915807</v>
+        <v>3.347798151915804</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>4.292205729713514</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-8.415839386994557</v>
+        <v>-7.926466236032819</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-16.83772026124372</v>
+        <v>-18.06933573070863</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-8.716780418269179</v>
+        <v>-10.00300123601231</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.179004239132406</v>
+        <v>-2.825647792977653</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-8.246524172775672</v>
+        <v>-8.82035671896573</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-5.520325395041064</v>
+        <v>-5.281580456433301</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.895816977992441</v>
+        <v>-3.260027123306883</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-10.01307714370974</v>
+        <v>-10.60815092193044</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-4.469618499921011</v>
+        <v>-4.643081358818853</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.45067433930231</v>
+        <v>11.80306539994598</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9070248341374756</v>
+        <v>0.4863700948117315</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.08578721301322</v>
+        <v>8.3225923506367</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18.9378914402235</v>
+        <v>18.68036273992601</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>9.336949964381592</v>
+        <v>9.859542722425941</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>10.96044426978529</v>
+        <v>11.53823657116405</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>11.76737230708503</v>
+        <v>12.12439014776013</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.357355817875479</v>
+        <v>2.85797122589904</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>7.948517913262005</v>
+        <v>7.70935120577417</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.04197971543741925</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2001762209425271</v>
+        <v>0.2001762209425269</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.2221612559540593</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3278807552299589</v>
+        <v>-0.3113858814022533</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6090200192131356</v>
+        <v>-0.6488691532517056</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3272411927798038</v>
+        <v>-0.3742599434528046</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1811140018600987</v>
+        <v>-0.1565973360958585</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3829260336423734</v>
+        <v>-0.3883359524523375</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2761535230636293</v>
+        <v>-0.2377651771459944</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1407310637975524</v>
+        <v>-0.1568752320025072</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4366342192633546</v>
+        <v>-0.448870585244477</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1973155575831268</v>
+        <v>-0.2084275072995152</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.7853643678846509</v>
+        <v>0.7078342704425841</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.0647625448823458</v>
+        <v>0.05263344504714208</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6659904317721125</v>
+        <v>0.4763178796542007</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.493844503555276</v>
+        <v>1.47391074181262</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8021401612893387</v>
+        <v>0.903875918848612</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9991849253507369</v>
+        <v>0.9939242041037497</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7148904117634952</v>
+        <v>0.7803225159131405</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2168117942235819</v>
+        <v>0.1791590053248235</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.5399760397838665</v>
+        <v>0.5014087074486198</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>5.346909444342959</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-1.881344629080656</v>
+        <v>-1.881344629080653</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-9.606044332055488</v>
+        <v>-9.799657144787478</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.428261788891772</v>
+        <v>7.871042570495369</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-8.51909963535368</v>
+        <v>-8.506998673481188</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-10.78845594865012</v>
+        <v>-11.22877876976867</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-14.18194337200208</v>
+        <v>-14.66804679523864</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-11.1707086924493</v>
+        <v>-11.54811745069922</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-8.774336223939411</v>
+        <v>-8.910943545948511</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.234171578115343</v>
+        <v>-2.49823619188795</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-8.446348961871148</v>
+        <v>-7.447250082481265</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.63456789419738</v>
+        <v>9.453274178786772</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>29.68507567464507</v>
+        <v>29.36490805372212</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.562558182677126</v>
+        <v>9.226207666270401</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.519544120731531</v>
+        <v>9.675387718123954</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.331343658941308</v>
+        <v>3.057706115553825</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.519971150781379</v>
+        <v>6.590461643666151</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.765646195186997</v>
+        <v>5.922212138649333</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>12.49925770983851</v>
+        <v>12.33869930063319</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.461106634968386</v>
+        <v>5.171224623002609</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.2645531327246028</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.09308472876503969</v>
+        <v>-0.09308472876503955</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4744426022000531</v>
+        <v>-0.5029924974702727</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.3372751557895091</v>
+        <v>0.3667041047386974</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4167096923342018</v>
+        <v>-0.4121622023987824</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4098352158827321</v>
+        <v>-0.4235906402475451</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5134461994986191</v>
+        <v>-0.5241846620457971</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.395781800003227</v>
+        <v>-0.4170016893818349</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3798122038985607</v>
+        <v>-0.3845789038032086</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.08900264206699365</v>
+        <v>-0.1197530152487739</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3625284500125837</v>
+        <v>-0.3173200877341489</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.9231442927040783</v>
+        <v>0.8384894258556327</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.783343899178336</v>
+        <v>2.683217400832329</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.816141906175415</v>
+        <v>0.7952525988778124</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4826863961257006</v>
+        <v>0.5168670844470188</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2087848377630787</v>
+        <v>0.1554792224061445</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3091145589700902</v>
+        <v>0.3766875414556642</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3421458172627241</v>
+        <v>0.3517531326510449</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7653869058939862</v>
+        <v>0.6849629293936967</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.2571860394723655</v>
+        <v>0.3056352905298312</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-1.905643157726253</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1.595084354509102</v>
+        <v>1.595084354509096</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>12.15983689376296</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-8.769201021177588</v>
+        <v>-8.632727431615413</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-11.46505809662064</v>
+        <v>-12.3628257350687</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.503065190033396</v>
+        <v>-8.907993989858436</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.236311103656478</v>
+        <v>1.128203195906018</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.279240402295627</v>
+        <v>-0.8151803371858607</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-5.124290121293205</v>
+        <v>-4.653646440921099</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-4.514939280595568</v>
+        <v>-5.145368476286663</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-7.427839119012416</v>
+        <v>-7.544457317638699</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-6.306822006899977</v>
+        <v>-6.26202281471809</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.05470442006854</v>
+        <v>9.732314338248997</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.693582767784385</v>
+        <v>7.02630205617755</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.71448225457622</v>
+        <v>11.20509695513076</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>22.23490000354836</v>
+        <v>21.98807646354507</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>23.35572401536555</v>
+        <v>23.17987018120091</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>14.77332557491945</v>
+        <v>14.81865611549013</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>10.46606572867508</v>
+        <v>10.72891945238286</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>9.047516617781836</v>
+        <v>9.124665656329004</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>9.462995445993535</v>
+        <v>9.515808668423405</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.08934310098631283</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.07478303689166656</v>
+        <v>0.07478303689166629</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>1.830838798360509</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3177963800736671</v>
+        <v>-0.3169598940178661</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4331757064261121</v>
+        <v>-0.4764116654284793</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3080570530752927</v>
+        <v>-0.3551330185080058</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.05645740227638676</v>
+        <v>-0.113882798066266</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3563799521772647</v>
+        <v>-0.3319835254027909</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4581877386508468</v>
+        <v>-0.4828449810517331</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2032162860705732</v>
+        <v>-0.23385847734391</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3461435347466538</v>
+        <v>-0.3400378803268173</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2838525711045247</v>
+        <v>-0.2856536950812301</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,29 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.6056790032146154</v>
+        <v>0.6065379254574991</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.488916187973728</v>
+        <v>0.4322415313337034</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.7094744544997886</v>
+        <v>0.7000199174722337</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>9.927778551312588</v>
+        <v>12.49466048655408</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>9.849540944727982</v>
-      </c>
-      <c r="H21" s="6" t="n">
-        <v>7.494789866865665</v>
-      </c>
+        <v>10.50009340187311</v>
+      </c>
+      <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>0.8057827148960673</v>
+        <v>0.7659154924380684</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.6432771161626543</v>
+        <v>0.6603635494488929</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.7042487618924306</v>
+        <v>0.6995502454065048</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1304,7 @@
         <v>7.132720582027408</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>5.058305977453833</v>
+        <v>5.058305977453831</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1315,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.20846848855252</v>
+        <v>-2.843779430336924</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.134864198110184</v>
+        <v>1.753210600277856</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.246311431629043</v>
+        <v>-1.956466279618954</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4.140498850246467</v>
+        <v>4.636192706921274</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>2.504977856102737</v>
+        <v>2.753568597193901</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1.134833593997741</v>
+        <v>1.088135068849483</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.631816150431733</v>
+        <v>1.56042018498925</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>3.699429115181112</v>
+        <v>3.06101471484855</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.235508098348442</v>
+        <v>1.294719169658658</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1350,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.73911746587325</v>
+        <v>7.701332447121828</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>12.9189911285901</v>
+        <v>13.10460063263996</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10.11649369735767</v>
+        <v>9.419320859052039</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16.38389552874036</v>
+        <v>16.34529412811919</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>13.67934171009641</v>
+        <v>13.52944810171663</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>12.49155716875432</v>
+        <v>11.36524064723559</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>9.748085169562939</v>
+        <v>9.91284259222407</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>11.16675597201531</v>
+        <v>11.03714335487116</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>8.76635549365038</v>
+        <v>9.018453345872079</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1409,7 @@
         <v>0.4996139253813727</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.3543108237751041</v>
+        <v>0.3543108237751039</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1420,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.166972092408087</v>
+        <v>-0.1656993241658423</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.05489294637612014</v>
+        <v>0.08698463787481285</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.123631581562492</v>
+        <v>-0.1039810925164994</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.2827776224755068</v>
+        <v>0.3140613109016751</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1412402285734161</v>
+        <v>0.1716590335756342</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0723560319111303</v>
+        <v>0.07610142426184487</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1007761018622529</v>
+        <v>0.08900970466576882</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.2260562177358482</v>
+        <v>0.1795087587073436</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.07157350835125553</v>
+        <v>0.07350507755511662</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1455,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.5711824496865081</v>
+        <v>0.5592819450214234</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.9865508988835781</v>
+        <v>0.9682252713006791</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.7363240678922423</v>
+        <v>0.6912302993140418</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.78751890908876</v>
+        <v>1.74881413713038</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.445227906225919</v>
+        <v>1.437486661985041</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.403570932744199</v>
+        <v>1.25784674662705</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7970678714301083</v>
+        <v>0.7912050891197777</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.9341905996145066</v>
+        <v>0.891709452870081</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.69960823519525</v>
+        <v>0.7287558097364931</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1500,7 @@
         <v>3.441353193719005</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-0.9297227822032711</v>
+        <v>-0.9297227822032655</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>0.2285542880962083</v>
@@ -1511,7 +1509,7 @@
         <v>2.113041708839186</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-1.614688915938701</v>
+        <v>-1.614688915938703</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.4054418731066128</v>
@@ -1520,7 +1518,7 @@
         <v>2.780104984564902</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-1.331640080786439</v>
+        <v>-1.331640080786436</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1529,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-7.198130693120797</v>
+        <v>-6.668697888111325</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.297459140721664</v>
+        <v>-4.728773624576839</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-8.342260647897129</v>
+        <v>-8.881199377381503</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-6.886229230860089</v>
+        <v>-6.595635551346302</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-5.319165691055136</v>
+        <v>-4.765052422770863</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-7.924666511590542</v>
+        <v>-7.895048924391704</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-4.397717961969735</v>
+        <v>-5.070200650414472</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-2.448385371710496</v>
+        <v>-2.371815303875888</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-6.412193895898843</v>
+        <v>-6.018051686078735</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1564,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>8.007729134506395</v>
+        <v>7.755203688649172</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>10.89359927625983</v>
+        <v>10.72716256141396</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.21707625036179</v>
+        <v>6.036784264682495</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.325741888523666</v>
+        <v>6.924103773191113</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>7.824705540060592</v>
+        <v>8.602824201750703</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>4.108991609350836</v>
+        <v>4.669401961918631</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>5.612827146551556</v>
+        <v>5.181528961150368</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>7.763631062757935</v>
+        <v>7.580501294523606</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>3.299515843717149</v>
+        <v>3.729788402833262</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1605,7 @@
         <v>0.2409101204126116</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.06508475439828011</v>
+        <v>-0.06508475439827972</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.01700719723079537</v>
@@ -1616,7 +1614,7 @@
         <v>0.1572358033553828</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.1201523414349111</v>
+        <v>-0.1201523414349112</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.02933752803500635</v>
@@ -1625,7 +1623,7 @@
         <v>0.2011667105323548</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.09635666859781261</v>
+        <v>-0.09635666859781242</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1634,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.3800916372541418</v>
+        <v>-0.363668105103859</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2445591423062785</v>
+        <v>-0.2682827626161423</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.4513481594252933</v>
+        <v>-0.4716778775080196</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.3856280602774385</v>
+        <v>-0.3870308083073055</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2826298874920986</v>
+        <v>-0.2806877531122368</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.4508332708631445</v>
+        <v>-0.4334632675537532</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2676219897641559</v>
+        <v>-0.3040574152063223</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1395082987135418</v>
+        <v>-0.1463838795164259</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3780571529433931</v>
+        <v>-0.3706525443462126</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1669,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.8642327040914266</v>
+        <v>0.7739652645140231</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.109632113699382</v>
+        <v>1.057888690146439</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.8256116897561515</v>
+        <v>0.6291192954761121</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.6640569980998565</v>
+        <v>0.7602684711364699</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.8081964148866967</v>
+        <v>0.898970552827463</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4166554116144187</v>
+        <v>0.513133360066386</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5198678496401006</v>
+        <v>0.467000447590861</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.7865593225029406</v>
+        <v>0.6883441905867391</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.3135976020188349</v>
+        <v>0.3421368437699417</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1714,7 @@
         <v>2.243576608009973</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2.478642206595519</v>
+        <v>2.47864220659552</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>1.087320405918599</v>
@@ -1725,7 +1723,7 @@
         <v>2.486455425849241</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>2.348421888646445</v>
+        <v>2.348421888646444</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>0.6106815853393267</v>
@@ -1745,31 +1743,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.77638774852967</v>
+        <v>-1.47684406881965</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>0.6717471921171235</v>
+        <v>0.6457732473935136</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>0.183944818962936</v>
+        <v>0.1839476359906695</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-1.091530951527545</v>
+        <v>-0.9360918647994395</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-0.02743666723583286</v>
+        <v>0.09501300427835745</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-0.07065209020968743</v>
+        <v>-0.3457450602468913</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.9856539599397329</v>
+        <v>-0.8211650512314523</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>0.5949887815417207</v>
+        <v>0.5709685277666572</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>0.6778412053700084</v>
+        <v>0.4784474220005469</v>
       </c>
     </row>
     <row r="36">
@@ -1783,28 +1781,28 @@
         <v>0</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>4.688543813094903</v>
+        <v>4.808451117111938</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>9.910327409606204</v>
+        <v>8.715136829443288</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>3.466681920435752</v>
+        <v>3.639528305424292</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>5.130508535248501</v>
+        <v>5.272187457280963</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>5.65241226375942</v>
+        <v>5.625775706287448</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>2.291345364639171</v>
+        <v>2.506604951362455</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>4.125048977711692</v>
+        <v>4.216335835578788</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>5.279753796292514</v>
+        <v>4.958077110360769</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1819,7 @@
         <v>7.576765024574533</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>8.370603220018815</v>
+        <v>8.370603220018817</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.3648163808013068</v>
@@ -1830,7 +1828,7 @@
         <v>0.8342524103700131</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.7879395708450493</v>
+        <v>0.7879395708450491</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.2978842123665196</v>
@@ -1839,7 +1837,7 @@
         <v>1.143021837508145</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>1.187970046229577</v>
+        <v>1.187970046229576</v>
       </c>
     </row>
     <row r="38">
@@ -1853,22 +1851,22 @@
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="inlineStr"/>
       <c r="F38" s="6" t="n">
-        <v>-0.3056495348114796</v>
+        <v>-0.2690279257268572</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.06110778208955635</v>
+        <v>0.01467402879286214</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.08488051894285761</v>
+        <v>-0.1522816093049432</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.3826282227109095</v>
+        <v>-0.3245870776462379</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.1598730451392094</v>
+        <v>0.1704804854184163</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.2192476897896275</v>
+        <v>0.1095721193241965</v>
       </c>
     </row>
     <row r="39">
@@ -1882,22 +1880,22 @@
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>1.702820322977086</v>
+        <v>2.026324585297</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>2.462071913910308</v>
+        <v>3.211553255193256</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>2.71351675266613</v>
+        <v>2.733041099772674</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.621591636723807</v>
+        <v>1.89696667144497</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>2.948951125343126</v>
+        <v>3.44208560792784</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>3.955823899241521</v>
+        <v>3.993791131571781</v>
       </c>
     </row>
     <row r="40">
@@ -1927,7 +1925,7 @@
         <v>3.884776860972446</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>3.534328884469791</v>
+        <v>3.534328884469788</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>2.934115917431247</v>
@@ -1947,31 +1945,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.7910783282079762</v>
+        <v>-1.215321816158341</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0.9654523014768022</v>
+        <v>1.019165494523005</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.0792232062601796</v>
+        <v>0.128736827928486</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1.552223781668655</v>
+        <v>1.547711650001009</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>1.446752545602473</v>
+        <v>1.60003971921634</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>1.205639540906039</v>
+        <v>1.33440914821709</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>0.8515057283337985</v>
+        <v>0.9322332446827228</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>2.183353416067819</v>
+        <v>1.833755509422611</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>1.398295038219704</v>
+        <v>1.552263154522117</v>
       </c>
     </row>
     <row r="42">
@@ -1982,31 +1980,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>4.825103629444154</v>
+        <v>4.662363403421066</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>6.642583080358021</v>
+        <v>6.680247075682602</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>5.891325070054189</v>
+        <v>6.041602876014021</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>6.387051508441127</v>
+        <v>6.723912214485706</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>6.189106172848862</v>
+        <v>6.442304747404269</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>5.95934330751095</v>
+        <v>5.910572408622961</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>4.749365211882862</v>
+        <v>4.801290413368191</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>5.739078831231752</v>
+        <v>5.659021913314262</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>5.157617320357775</v>
+        <v>5.125037201866959</v>
       </c>
     </row>
     <row r="43">
@@ -2032,7 +2030,7 @@
         <v>0.3795238656983336</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.3452867973857015</v>
+        <v>0.3452867973857012</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.2474732139800749</v>
@@ -2052,31 +2050,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.05260030420916717</v>
+        <v>-0.08204068368891933</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.0575303440969242</v>
+        <v>0.06555576913838021</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.004437987131800566</v>
+        <v>0.005786989702622178</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.1283439753085243</v>
+        <v>0.1361196333747294</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.1250265486529004</v>
+        <v>0.1327233189374993</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.09961698402198436</v>
+        <v>0.1112549089077392</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.06678866071118655</v>
+        <v>0.07368029892006367</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.1714731207490188</v>
+        <v>0.1448436320409052</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.1078677496793598</v>
+        <v>0.1175123018098621</v>
       </c>
     </row>
     <row r="45">
@@ -2087,31 +2085,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.3935222085377382</v>
+        <v>0.3755672641619258</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.5368372481328045</v>
+        <v>0.5428121350160474</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.4773983392895626</v>
+        <v>0.4880537431384365</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.709189718050796</v>
+        <v>0.7417446874188414</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.6974656607720315</v>
+        <v>0.6968175753949641</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.6602783363988234</v>
+        <v>0.6529518798026455</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.4305637606785216</v>
+        <v>0.4392856007978886</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.526596535234073</v>
+        <v>0.5167169696713579</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.4743612525791879</v>
+        <v>0.4692675345127948</v>
       </c>
     </row>
     <row r="46">
